--- a/Excel/data.xlsx
+++ b/Excel/data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek\OneDrive\Desktop\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek\PycharmProjects\Sprint2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C605E62-BF08-4EAC-8EFA-C255AE54E7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910A54EF-D109-40C5-8114-F12BC9756642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9312" yWindow="1140" windowWidth="13440" windowHeight="10572" xr2:uid="{13243C8E-AE4B-497A-B9BB-CA8A5BB18138}"/>
+    <workbookView xWindow="10500" yWindow="1140" windowWidth="12252" windowHeight="10572" xr2:uid="{13243C8E-AE4B-497A-B9BB-CA8A5BB18138}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
